--- a/RawData/2004_Olympics.xlsx
+++ b/RawData/2004_Olympics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\butlerdata\Machine-Learning-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B1F0DA-20F2-442A-B935-86FFFBDAE27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF45CA2-FB7D-8A48-99A5-A54164AB7E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2004_Olympics" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold </t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Athlete Total</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>YearCountry</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Athletes</t>
   </si>
 </sst>
 </file>
@@ -1126,50 +1126,50 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2&amp;B2</f>
         <v>2004 Argentina </v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2004</v>
@@ -1196,13 +1196,13 @@
         <v>37299220</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3</f>
         <v>2004 Australia </v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2004</v>
@@ -1229,13 +1229,13 @@
         <v>20091834</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>2004 Austria </v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2004</v>
@@ -1262,13 +1262,13 @@
         <v>8175566</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2004 Azerbaijan </v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -1295,13 +1295,13 @@
         <v>8105395</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2004 Bahamas </v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -1328,13 +1328,13 @@
         <v>311981</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>2004 Belarus </v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2004</v>
@@ -1361,13 +1361,13 @@
         <v>9769363</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>2004 Belgium </v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2004</v>
@@ -1394,13 +1394,13 @@
         <v>10335500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>2004 Brazil </v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2004</v>
@@ -1427,13 +1427,13 @@
         <v>180654250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>2004 Bulgaria </v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2004</v>
@@ -1460,13 +1460,13 @@
         <v>7828492</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>2004 Cameroon </v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2004</v>
@@ -1493,13 +1493,13 @@
         <v>16623500</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>2004 Canada </v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2004</v>
@@ -1526,13 +1526,13 @@
         <v>31666333</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>2004 Chile </v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2004</v>
@@ -1559,13 +1559,13 @@
         <v>16023866</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>2004 China </v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>2004</v>
@@ -1592,13 +1592,13 @@
         <v>1297944000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>2004 Chinese Taipei </v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2004</v>
@@ -1625,13 +1625,13 @@
         <v>22755225</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>2004 Colombia </v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>2004</v>
@@ -1658,13 +1658,13 @@
         <v>43648485</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>2004 Croatia </v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2004</v>
@@ -1691,13 +1691,13 @@
         <v>4475649</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>2004 Cuba </v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2004</v>
@@ -1724,13 +1724,13 @@
         <v>11231918</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>2004 Czech Republic </v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2004</v>
@@ -1757,13 +1757,13 @@
         <v>10218595</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>2004 Denmark </v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>2004</v>
@@ -1790,13 +1790,13 @@
         <v>5402451</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>2004 Dominican Republic </v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>2004</v>
@@ -1823,13 +1823,13 @@
         <v>9324633</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2004 Egypt </v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2004</v>
@@ -1856,13 +1856,13 @@
         <v>74959020</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2004 Eritrea </v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>2004</v>
@@ -1889,13 +1889,13 @@
         <v>4375384</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2004 Estonia </v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2004</v>
@@ -1922,13 +1922,13 @@
         <v>1348999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2004 Ethiopia </v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>2004</v>
@@ -1955,13 +1955,13 @@
         <v>69960840</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2004 Finland </v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>2004</v>
@@ -1988,13 +1988,13 @@
         <v>5228095</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2004 France </v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>2004</v>
@@ -2021,13 +2021,13 @@
         <v>60197760</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2004 Georgia </v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>2004</v>
@@ -2054,13 +2054,13 @@
         <v>4688957</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2004 Germany </v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>2004</v>
@@ -2087,13 +2087,13 @@
         <v>82470430</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2004 Great Britain </v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>2004</v>
@@ -2120,13 +2120,13 @@
         <v>59834300</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>2004 Greece </v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -2153,13 +2153,13 @@
         <v>10820759</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>2004 Hong Kong </v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>2004</v>
@@ -2186,13 +2186,13 @@
         <v>6962569</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>2004 Hungary </v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>2004</v>
@@ -2219,13 +2219,13 @@
         <v>10082193</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>2004 India </v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>2004</v>
@@ -2252,13 +2252,13 @@
         <v>1079721000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>2004 Indonesia </v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>2004</v>
@@ -2285,13 +2285,13 @@
         <v>224542666</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>2004 Iran </v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>2004</v>
@@ -2318,13 +2318,13 @@
         <v>67315140</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>2004 Israel </v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>2004</v>
@@ -2351,13 +2351,13 @@
         <v>6861000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>2004 Italy </v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>2004</v>
@@ -2384,13 +2384,13 @@
         <v>58136026</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>2004 Jamaica </v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>2004</v>
@@ -2417,13 +2417,13 @@
         <v>2642000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>2004 Japan </v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>2004</v>
@@ -2450,13 +2450,13 @@
         <v>127621332</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>2004 Kazakhstan </v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>2004</v>
@@ -2483,13 +2483,13 @@
         <v>14956480</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>2004 Kenya </v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>2004</v>
@@ -2516,13 +2516,13 @@
         <v>33467330</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>2004 Latvia </v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>2004</v>
@@ -2549,13 +2549,13 @@
         <v>2312791</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>2004 Lithuania </v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>2004</v>
@@ -2582,13 +2582,13 @@
         <v>3465643</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>2004 Mexico </v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>2004</v>
@@ -2615,13 +2615,13 @@
         <v>103019731</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>2004 Mongolia </v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>2004</v>
@@ -2648,13 +2648,13 @@
         <v>2737118</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>2004 Morocco </v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>2004</v>
@@ -2681,13 +2681,13 @@
         <v>30628813</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>2004 Netherlands </v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>2004</v>
@@ -2714,13 +2714,13 @@
         <v>16299965</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>2004 New Zealand </v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>2004</v>
@@ -2747,13 +2747,13 @@
         <v>4058949</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>2004 Nigeria </v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>2004</v>
@@ -2780,13 +2780,13 @@
         <v>137502444</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>2004 North Korea </v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>2004</v>
@@ -2813,13 +2813,13 @@
         <v>22559912</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>2004 Norway </v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>2004</v>
@@ -2846,13 +2846,13 @@
         <v>4586170</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>2004 Paraguay </v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>2004</v>
@@ -2879,13 +2879,13 @@
         <v>5922514</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>2004 Poland </v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>2004</v>
@@ -2912,13 +2912,13 @@
         <v>38330516</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>2004 Portugal </v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>2004</v>
@@ -2945,13 +2945,13 @@
         <v>10288313</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>2004 Romania </v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -2978,13 +2978,13 @@
         <v>22541275</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>2004 Russia </v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>2004</v>
@@ -3011,13 +3011,13 @@
         <v>143840066</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>2004 Serbia and Montenegro </v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>2004</v>
@@ -3044,13 +3044,13 @@
         <v>8084813</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>2004 Slovakia </v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>2004</v>
@@ -3077,13 +3077,13 @@
         <v>5396155</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>2004 Slovenia </v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>2004</v>
@@ -3110,13 +3110,13 @@
         <v>1997000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>2004 South Africa </v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>2004</v>
@@ -3143,13 +3143,13 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>2004 South Korea </v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>2004</v>
@@ -3176,13 +3176,13 @@
         <v>48187106</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>2004 Spain </v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>2004</v>
@@ -3209,13 +3209,13 @@
         <v>41888143</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>2004 Sweden </v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>2004</v>
@@ -3242,13 +3242,13 @@
         <v>8671959</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>2004 Switzerland </v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>2004</v>
@@ -3275,13 +3275,13 @@
         <v>7406593</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>2004 Syria </v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>2004</v>
@@ -3308,13 +3308,13 @@
         <v>18393723</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A75" si="1">C67&amp;B67</f>
         <v>2004 Thailand </v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>2004</v>
@@ -3341,13 +3341,13 @@
         <v>65660394</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>2004 Trinidad and Tobago </v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>2004</v>
@@ -3374,13 +3374,13 @@
         <v>1301307</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>2004 Turkey </v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>2004</v>
@@ -3407,13 +3407,13 @@
         <v>70397806</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>2004 Ukraine </v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>2004</v>
@@ -3440,13 +3440,13 @@
         <v>47538026</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>2004 United Arab Emirates </v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>2004</v>
@@ -3473,13 +3473,13 @@
         <v>3599666</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>2004 United States </v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>2004</v>
@@ -3506,13 +3506,13 @@
         <v>293694333</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>2004 Uzbekistan </v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>2004</v>
@@ -3539,13 +3539,13 @@
         <v>25985078</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>2004 Venezuela </v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>2004</v>
@@ -3572,13 +3572,13 @@
         <v>26127000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>2004 Zimbabwe </v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>2004</v>

--- a/RawData/2004_Olympics.xlsx
+++ b/RawData/2004_Olympics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF45CA2-FB7D-8A48-99A5-A54164AB7E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA44CEF-37E9-9249-8F7A-7ABD533A94D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="1140" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2004_Olympics" sheetId="1" r:id="rId1"/>
@@ -51,228 +51,6 @@
     <t>GDP</t>
   </si>
   <si>
-    <t> Australia </t>
-  </si>
-  <si>
-    <t> Austria </t>
-  </si>
-  <si>
-    <t> Azerbaijan </t>
-  </si>
-  <si>
-    <t> Bahamas </t>
-  </si>
-  <si>
-    <t> Belarus </t>
-  </si>
-  <si>
-    <t> Belgium </t>
-  </si>
-  <si>
-    <t> Brazil </t>
-  </si>
-  <si>
-    <t> Bulgaria </t>
-  </si>
-  <si>
-    <t> Cameroon </t>
-  </si>
-  <si>
-    <t> Canada </t>
-  </si>
-  <si>
-    <t> Chile </t>
-  </si>
-  <si>
-    <t> China </t>
-  </si>
-  <si>
-    <t> Chinese Taipei </t>
-  </si>
-  <si>
-    <t> Colombia </t>
-  </si>
-  <si>
-    <t> Croatia </t>
-  </si>
-  <si>
-    <t> Cuba </t>
-  </si>
-  <si>
-    <t> Czech Republic </t>
-  </si>
-  <si>
-    <t> Denmark </t>
-  </si>
-  <si>
-    <t> Dominican Republic </t>
-  </si>
-  <si>
-    <t> Egypt </t>
-  </si>
-  <si>
-    <t> Eritrea </t>
-  </si>
-  <si>
-    <t> Estonia </t>
-  </si>
-  <si>
-    <t> Ethiopia </t>
-  </si>
-  <si>
-    <t> Finland </t>
-  </si>
-  <si>
-    <t> France </t>
-  </si>
-  <si>
-    <t> Georgia </t>
-  </si>
-  <si>
-    <t> Germany </t>
-  </si>
-  <si>
-    <t> Great Britain </t>
-  </si>
-  <si>
-    <t> Greece </t>
-  </si>
-  <si>
-    <t> Hong Kong </t>
-  </si>
-  <si>
-    <t> Hungary </t>
-  </si>
-  <si>
-    <t> India </t>
-  </si>
-  <si>
-    <t> Indonesia </t>
-  </si>
-  <si>
-    <t> Iran </t>
-  </si>
-  <si>
-    <t> Israel </t>
-  </si>
-  <si>
-    <t> Italy </t>
-  </si>
-  <si>
-    <t> Jamaica </t>
-  </si>
-  <si>
-    <t> Japan </t>
-  </si>
-  <si>
-    <t> Kazakhstan </t>
-  </si>
-  <si>
-    <t> Kenya </t>
-  </si>
-  <si>
-    <t> Latvia </t>
-  </si>
-  <si>
-    <t> Lithuania </t>
-  </si>
-  <si>
-    <t> Mexico </t>
-  </si>
-  <si>
-    <t> Mongolia </t>
-  </si>
-  <si>
-    <t> Morocco </t>
-  </si>
-  <si>
-    <t> Netherlands </t>
-  </si>
-  <si>
-    <t> New Zealand </t>
-  </si>
-  <si>
-    <t> Nigeria </t>
-  </si>
-  <si>
-    <t> North Korea </t>
-  </si>
-  <si>
-    <t> Norway </t>
-  </si>
-  <si>
-    <t> Paraguay </t>
-  </si>
-  <si>
-    <t> Poland </t>
-  </si>
-  <si>
-    <t> Portugal </t>
-  </si>
-  <si>
-    <t> Romania </t>
-  </si>
-  <si>
-    <t> Russia </t>
-  </si>
-  <si>
-    <t> Serbia and Montenegro </t>
-  </si>
-  <si>
-    <t> Slovakia </t>
-  </si>
-  <si>
-    <t> Slovenia </t>
-  </si>
-  <si>
-    <t> South Africa </t>
-  </si>
-  <si>
-    <t> South Korea </t>
-  </si>
-  <si>
-    <t> Spain </t>
-  </si>
-  <si>
-    <t> Sweden </t>
-  </si>
-  <si>
-    <t> Switzerland </t>
-  </si>
-  <si>
-    <t> Syria </t>
-  </si>
-  <si>
-    <t> Thailand </t>
-  </si>
-  <si>
-    <t> Trinidad and Tobago </t>
-  </si>
-  <si>
-    <t> Turkey </t>
-  </si>
-  <si>
-    <t> Ukraine </t>
-  </si>
-  <si>
-    <t> United Arab Emirates </t>
-  </si>
-  <si>
-    <t> United States </t>
-  </si>
-  <si>
-    <t> Uzbekistan </t>
-  </si>
-  <si>
-    <t> Venezuela </t>
-  </si>
-  <si>
-    <t> Zimbabwe </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Argentina </t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -283,6 +61,228 @@
   </si>
   <si>
     <t>Athletes</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ChineseTaipei</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CzechRepublic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DominicanRepublic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GreatBritain</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>HongKong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NorthKorea</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>SerbiaandMontenegro</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SouthAfrica</t>
+  </si>
+  <si>
+    <t>SouthKorea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TrinidadandTobago</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UnitedArabEmirates</t>
+  </si>
+  <si>
+    <t>UnitedStates</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1126,14 +1126,14 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1154,22 +1154,22 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2&amp;B2</f>
-        <v>2004 Argentina </v>
+        <v>2004Argentina</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2004</v>
@@ -1199,10 +1199,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3</f>
-        <v>2004 Australia </v>
+        <v>2004Australia</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2004</v>
@@ -1232,10 +1232,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Austria </v>
+        <v>2004Austria</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2004</v>
@@ -1265,10 +1265,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Azerbaijan </v>
+        <v>2004Azerbaijan</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -1298,10 +1298,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Bahamas </v>
+        <v>2004Bahamas</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -1331,10 +1331,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Belarus </v>
+        <v>2004Belarus</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2004</v>
@@ -1364,10 +1364,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Belgium </v>
+        <v>2004Belgium</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2004</v>
@@ -1397,10 +1397,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Brazil </v>
+        <v>2004Brazil</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2004</v>
@@ -1430,10 +1430,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Bulgaria </v>
+        <v>2004Bulgaria</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2004</v>
@@ -1463,10 +1463,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Cameroon </v>
+        <v>2004Cameroon</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2004</v>
@@ -1496,10 +1496,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Canada </v>
+        <v>2004Canada</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2004</v>
@@ -1529,10 +1529,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Chile </v>
+        <v>2004Chile</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2004</v>
@@ -1562,10 +1562,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>2004 China </v>
+        <v>2004China</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2004</v>
@@ -1595,10 +1595,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Chinese Taipei </v>
+        <v>2004ChineseTaipei</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2004</v>
@@ -1628,10 +1628,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Colombia </v>
+        <v>2004Colombia</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2004</v>
@@ -1661,10 +1661,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Croatia </v>
+        <v>2004Croatia</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2004</v>
@@ -1694,10 +1694,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Cuba </v>
+        <v>2004Cuba</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2004</v>
@@ -1727,10 +1727,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Czech Republic </v>
+        <v>2004CzechRepublic</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2004</v>
@@ -1760,10 +1760,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Denmark </v>
+        <v>2004Denmark</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2004</v>
@@ -1793,10 +1793,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Dominican Republic </v>
+        <v>2004DominicanRepublic</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>2004</v>
@@ -1826,10 +1826,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Egypt </v>
+        <v>2004Egypt</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2004</v>
@@ -1859,10 +1859,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Eritrea </v>
+        <v>2004Eritrea</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2004</v>
@@ -1892,10 +1892,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Estonia </v>
+        <v>2004Estonia</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2004</v>
@@ -1925,10 +1925,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Ethiopia </v>
+        <v>2004Ethiopia</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2004</v>
@@ -1958,10 +1958,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Finland </v>
+        <v>2004Finland</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>2004</v>
@@ -1991,10 +1991,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>2004 France </v>
+        <v>2004France</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2004</v>
@@ -2024,10 +2024,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Georgia </v>
+        <v>2004Georgia</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2004</v>
@@ -2057,10 +2057,10 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Germany </v>
+        <v>2004Germany</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2004</v>
@@ -2090,10 +2090,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Great Britain </v>
+        <v>2004GreatBritain</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>2004</v>
@@ -2123,10 +2123,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Greece </v>
+        <v>2004Greece</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -2156,10 +2156,10 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Hong Kong </v>
+        <v>2004HongKong</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2004</v>
@@ -2189,10 +2189,10 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Hungary </v>
+        <v>2004Hungary</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>2004</v>
@@ -2222,10 +2222,10 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>2004 India </v>
+        <v>2004India</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>2004</v>
@@ -2255,10 +2255,10 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Indonesia </v>
+        <v>2004Indonesia</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>2004</v>
@@ -2288,10 +2288,10 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Iran </v>
+        <v>2004Iran</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>2004</v>
@@ -2321,10 +2321,10 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Israel </v>
+        <v>2004Israel</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2004</v>
@@ -2354,10 +2354,10 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Italy </v>
+        <v>2004Italy</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>2004</v>
@@ -2387,10 +2387,10 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Jamaica </v>
+        <v>2004Jamaica</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>2004</v>
@@ -2420,10 +2420,10 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Japan </v>
+        <v>2004Japan</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2004</v>
@@ -2453,10 +2453,10 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Kazakhstan </v>
+        <v>2004Kazakhstan</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>2004</v>
@@ -2486,10 +2486,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Kenya </v>
+        <v>2004Kenya</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>2004</v>
@@ -2519,10 +2519,10 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Latvia </v>
+        <v>2004Latvia</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>2004</v>
@@ -2552,10 +2552,10 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Lithuania </v>
+        <v>2004Lithuania</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>2004</v>
@@ -2585,10 +2585,10 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Mexico </v>
+        <v>2004Mexico</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>2004</v>
@@ -2618,10 +2618,10 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Mongolia </v>
+        <v>2004Mongolia</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>2004</v>
@@ -2651,10 +2651,10 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Morocco </v>
+        <v>2004Morocco</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>2004</v>
@@ -2684,10 +2684,10 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Netherlands </v>
+        <v>2004Netherlands</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>2004</v>
@@ -2717,10 +2717,10 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>2004 New Zealand </v>
+        <v>2004NewZealand</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>2004</v>
@@ -2750,10 +2750,10 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Nigeria </v>
+        <v>2004Nigeria</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>2004</v>
@@ -2783,10 +2783,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>2004 North Korea </v>
+        <v>2004NorthKorea</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>2004</v>
@@ -2816,10 +2816,10 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Norway </v>
+        <v>2004Norway</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>2004</v>
@@ -2849,10 +2849,10 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Paraguay </v>
+        <v>2004Paraguay</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>2004</v>
@@ -2882,10 +2882,10 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Poland </v>
+        <v>2004Poland</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>2004</v>
@@ -2915,10 +2915,10 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Portugal </v>
+        <v>2004Portugal</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>2004</v>
@@ -2948,10 +2948,10 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Romania </v>
+        <v>2004Romania</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -2981,10 +2981,10 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Russia </v>
+        <v>2004Russia</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>2004</v>
@@ -3014,10 +3014,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Serbia and Montenegro </v>
+        <v>2004SerbiaandMontenegro</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>2004</v>
@@ -3047,10 +3047,10 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Slovakia </v>
+        <v>2004Slovakia</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>2004</v>
@@ -3080,10 +3080,10 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Slovenia </v>
+        <v>2004Slovenia</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>2004</v>
@@ -3113,10 +3113,10 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>2004 South Africa </v>
+        <v>2004SouthAfrica</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>2004</v>
@@ -3146,10 +3146,10 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>2004 South Korea </v>
+        <v>2004SouthKorea</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>2004</v>
@@ -3179,10 +3179,10 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Spain </v>
+        <v>2004Spain</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>2004</v>
@@ -3212,10 +3212,10 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Sweden </v>
+        <v>2004Sweden</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>2004</v>
@@ -3245,10 +3245,10 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Switzerland </v>
+        <v>2004Switzerland</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>2004</v>
@@ -3278,10 +3278,10 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>2004 Syria </v>
+        <v>2004Syria</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>2004</v>
@@ -3311,10 +3311,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A75" si="1">C67&amp;B67</f>
-        <v>2004 Thailand </v>
+        <v>2004Thailand</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>2004</v>
@@ -3344,10 +3344,10 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>2004 Trinidad and Tobago </v>
+        <v>2004TrinidadandTobago</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>2004</v>
@@ -3377,10 +3377,10 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>2004 Turkey </v>
+        <v>2004Turkey</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>2004</v>
@@ -3410,10 +3410,10 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>2004 Ukraine </v>
+        <v>2004Ukraine</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>2004</v>
@@ -3443,10 +3443,10 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>2004 United Arab Emirates </v>
+        <v>2004UnitedArabEmirates</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <v>2004</v>
@@ -3476,10 +3476,10 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>2004 United States </v>
+        <v>2004UnitedStates</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>2004</v>
@@ -3509,10 +3509,10 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>2004 Uzbekistan </v>
+        <v>2004Uzbekistan</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>2004</v>
@@ -3542,10 +3542,10 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>2004 Venezuela </v>
+        <v>2004Venezuela</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>2004</v>
@@ -3575,10 +3575,10 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>2004 Zimbabwe </v>
+        <v>2004Zimbabwe</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>2004</v>

--- a/RawData/2004_Olympics.xlsx
+++ b/RawData/2004_Olympics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA44CEF-37E9-9249-8F7A-7ABD533A94D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888F4B8-B584-714F-8BC1-1513D1B9FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="1140" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>ChineseTaipei</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -114,15 +111,9 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>CzechRepublic</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>DominicanRepublic</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -147,15 +138,9 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>GreatBritain</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
-    <t>HongKong</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -204,15 +189,9 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>NewZealand</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
-    <t>NorthKorea</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -231,21 +210,12 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>SerbiaandMontenegro</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>SouthAfrica</t>
-  </si>
-  <si>
-    <t>SouthKorea</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -261,21 +231,12 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>TrinidadandTobago</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>UnitedArabEmirates</t>
-  </si>
-  <si>
-    <t>UnitedStates</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -283,6 +244,45 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1125,11 +1125,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1595,10 +1598,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>2004ChineseTaipei</v>
+        <v>2004Chinese Taipei</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>2004</v>
@@ -1631,7 +1634,7 @@
         <v>2004Colombia</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>2004</v>
@@ -1664,7 +1667,7 @@
         <v>2004Croatia</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>2004</v>
@@ -1697,7 +1700,7 @@
         <v>2004Cuba</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>2004</v>
@@ -1727,10 +1730,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>2004CzechRepublic</v>
+        <v>2004Czech Republic</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>2004</v>
@@ -1763,7 +1766,7 @@
         <v>2004Denmark</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>2004</v>
@@ -1793,10 +1796,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>2004DominicanRepublic</v>
+        <v>2004Dominican Republic</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>2004</v>
@@ -1829,7 +1832,7 @@
         <v>2004Egypt</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>2004</v>
@@ -1862,7 +1865,7 @@
         <v>2004Eritrea</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>2004</v>
@@ -1895,7 +1898,7 @@
         <v>2004Estonia</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>2004</v>
@@ -1928,7 +1931,7 @@
         <v>2004Ethiopia</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>2004</v>
@@ -1961,7 +1964,7 @@
         <v>2004Finland</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2004</v>
@@ -1994,7 +1997,7 @@
         <v>2004France</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>2004</v>
@@ -2027,7 +2030,7 @@
         <v>2004Georgia</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2004</v>
@@ -2060,7 +2063,7 @@
         <v>2004Germany</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>2004</v>
@@ -2090,10 +2093,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>2004GreatBritain</v>
+        <v>2004Great Britain</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>2004</v>
@@ -2126,7 +2129,7 @@
         <v>2004Greece</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -2156,10 +2159,10 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>2004HongKong</v>
+        <v>2004Hong Kong</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>2004</v>
@@ -2192,7 +2195,7 @@
         <v>2004Hungary</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>2004</v>
@@ -2225,7 +2228,7 @@
         <v>2004India</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>2004</v>
@@ -2258,7 +2261,7 @@
         <v>2004Indonesia</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>2004</v>
@@ -2291,7 +2294,7 @@
         <v>2004Iran</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>2004</v>
@@ -2324,7 +2327,7 @@
         <v>2004Israel</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>2004</v>
@@ -2357,7 +2360,7 @@
         <v>2004Italy</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>2004</v>
@@ -2390,7 +2393,7 @@
         <v>2004Jamaica</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>2004</v>
@@ -2423,7 +2426,7 @@
         <v>2004Japan</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>2004</v>
@@ -2456,7 +2459,7 @@
         <v>2004Kazakhstan</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>2004</v>
@@ -2489,7 +2492,7 @@
         <v>2004Kenya</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>2004</v>
@@ -2522,7 +2525,7 @@
         <v>2004Latvia</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>2004</v>
@@ -2555,7 +2558,7 @@
         <v>2004Lithuania</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>2004</v>
@@ -2588,7 +2591,7 @@
         <v>2004Mexico</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>2004</v>
@@ -2621,7 +2624,7 @@
         <v>2004Mongolia</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>2004</v>
@@ -2654,7 +2657,7 @@
         <v>2004Morocco</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>2004</v>
@@ -2687,7 +2690,7 @@
         <v>2004Netherlands</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>2004</v>
@@ -2717,10 +2720,10 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>2004NewZealand</v>
+        <v>2004New Zealand</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>2004</v>
@@ -2753,7 +2756,7 @@
         <v>2004Nigeria</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2004</v>
@@ -2783,10 +2786,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>2004NorthKorea</v>
+        <v>2004North Korea</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C51">
         <v>2004</v>
@@ -2819,7 +2822,7 @@
         <v>2004Norway</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>2004</v>
@@ -2852,7 +2855,7 @@
         <v>2004Paraguay</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>2004</v>
@@ -2885,7 +2888,7 @@
         <v>2004Poland</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>2004</v>
@@ -2918,7 +2921,7 @@
         <v>2004Portugal</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>2004</v>
@@ -2951,7 +2954,7 @@
         <v>2004Romania</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -2984,7 +2987,7 @@
         <v>2004Russia</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>2004</v>
@@ -3014,10 +3017,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>2004SerbiaandMontenegro</v>
+        <v>2004Serbia and Montenegro</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>2004</v>
@@ -3050,7 +3053,7 @@
         <v>2004Slovakia</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>2004</v>
@@ -3083,7 +3086,7 @@
         <v>2004Slovenia</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>2004</v>
@@ -3113,10 +3116,10 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>2004SouthAfrica</v>
+        <v>2004South Africa</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>2004</v>
@@ -3146,10 +3149,10 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>2004SouthKorea</v>
+        <v>2004South Korea</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>2004</v>
@@ -3182,7 +3185,7 @@
         <v>2004Spain</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>2004</v>
@@ -3215,7 +3218,7 @@
         <v>2004Sweden</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>2004</v>
@@ -3248,7 +3251,7 @@
         <v>2004Switzerland</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>2004</v>
@@ -3281,7 +3284,7 @@
         <v>2004Syria</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>2004</v>
@@ -3314,7 +3317,7 @@
         <v>2004Thailand</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>2004</v>
@@ -3344,10 +3347,10 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>2004TrinidadandTobago</v>
+        <v>2004Trinidad and Tobago</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>2004</v>
@@ -3380,7 +3383,7 @@
         <v>2004Turkey</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>2004</v>
@@ -3413,7 +3416,7 @@
         <v>2004Ukraine</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>2004</v>
@@ -3443,10 +3446,10 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>2004UnitedArabEmirates</v>
+        <v>2004United Arab Emirates</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>2004</v>
@@ -3476,10 +3479,10 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>2004UnitedStates</v>
+        <v>2004United States</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C72">
         <v>2004</v>
@@ -3512,7 +3515,7 @@
         <v>2004Uzbekistan</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>2004</v>
@@ -3545,7 +3548,7 @@
         <v>2004Venezuela</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C74">
         <v>2004</v>
@@ -3578,7 +3581,7 @@
         <v>2004Zimbabwe</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>2004</v>
